--- a/outputs/ML_Results/mode_MNLR/Clermont.xlsx
+++ b/outputs/ML_Results/mode_MNLR/Clermont.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ21" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ12" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ0" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ22" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ18" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ26034805" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ28737173" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ31372124" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ34063422" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ36713729" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ39247695" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ41603828" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ43981121" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ46315352" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,7 +781,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -794,7 +794,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -807,7 +807,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -820,7 +820,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -833,7 +833,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -846,7 +846,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -859,7 +859,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -872,7 +872,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -885,7 +885,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -898,7 +898,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -911,7 +911,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -924,7 +924,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -937,7 +937,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -950,7 +950,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -963,7 +963,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -972,19 +972,6 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -997,7 +984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1048,22 +1035,12 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-50.86018186106394</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.519657370243068</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-20.88070699035729</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>0.02877115537723765</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9987769552895737</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1071,24 +1048,12 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.002826597976588708</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3514068368620647</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.8196268995845784</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9968448857590215</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.04085511801052464</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.008850334549720082</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1096,24 +1061,12 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-122.9738537468427</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.7069864539666297</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.9622691210249834</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.009974511913106783</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0311996647127568</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1121,24 +1074,12 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.8151473087885125</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07580476554794109</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.1890323291911838</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.2114517688553929</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7031520633240391</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4922855511585582</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1146,24 +1087,12 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.8127554054836746</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.08252789220107981</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-8.049762296301163</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5356026109976624</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.8993103463934313</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.221068541375284</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1171,24 +1100,12 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.5686173439435013</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.008039478231287924</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.7484739333657522</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.4034411594498771</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9646962521827411</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.02929614532743455</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1196,24 +1113,12 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>-0.880466682062143</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.08554748780466018</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.1702305959289825</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.04447333147596129</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.4735262032673954</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.3512295181873736</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1221,22 +1126,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>39.17306599308625</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.010716702043704</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.604493455507527</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>1.350188539176973e-21</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6.32358430059641e-06</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1244,22 +1139,12 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>37.43800604198749</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.419244654178997</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.588831840958707</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>1.884182760205585e-05</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.224397249752157e-05</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1267,22 +1152,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>38.97178587717525</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6931819696658426</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.988350166402368</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>0.001334289737127234</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.001233392364686694</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1290,22 +1165,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>39.33546890287353</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9171066401893669</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.379277289907179</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.0002778165167118659</v>
-      </c>
-      <c r="G12" t="n">
-        <v>5.01026054006868e-05</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1313,22 +1178,12 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>17.92641307808576</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.09348478859773955</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.295242346168776</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.7622384886517788</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.06034898110405498</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1336,24 +1191,12 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.5943831357207486</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1255644197535706</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.06259926284279502</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.5057594981284148</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.5802419193233912</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.8743095381628123</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1361,24 +1204,12 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>-17.38751665101421</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.8058980954937914</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-0.02476617031739951</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9986746240662236</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.009493639812665362</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.9687172274360206</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1386,24 +1217,12 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>-14.54908463188887</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.843309170744344</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.045915552352988</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9982723195726574</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0005029440199691172</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.005977144393120553</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1411,24 +1230,12 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.4111949173171906</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2916993187676155</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.1186844886189513</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.6891927343141508</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.2450759956630436</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.8055896444572669</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1436,24 +1243,12 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2.529081414050721</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3809533861592457</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.7692856536196109</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.01982928590420933</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.2712463008647958</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.1317967384098177</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1461,24 +1256,12 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>3.159437172802555</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1538139563629893</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.935250048134816</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.02454195957786382</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.7342926125287281</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.002295724500651841</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1486,24 +1269,12 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>-24.6785990851676</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.2691353049319735</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.310509888011605</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9999829610903914</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.6484386032825169</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.03690726260308743</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1511,24 +1282,12 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>1.670305896487595</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9408641967747432</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.3670619283544526</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.08880703533085925</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.001171592513057144</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.5317396121540641</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1536,24 +1295,12 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>11.24012141258528</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.830187023361609</v>
-      </c>
-      <c r="D22" t="n">
-        <v>17.20116411543981</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9964294784540048</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.1869081961878717</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.9989924768589197</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1561,24 +1308,12 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>10.63322128926957</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-2.423845362464547</v>
-      </c>
-      <c r="D23" t="n">
-        <v>14.8695295115785</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9966222644491729</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.09025597768878733</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.9991290475470325</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1586,424 +1321,207 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>12.14155217320272</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-1.676211651800263</v>
-      </c>
-      <c r="D24" t="n">
-        <v>17.3340738440584</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9961431330504106</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.2211293869353186</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.9989846919461862</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>12.52900167050576</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-1.834114755683469</v>
-      </c>
-      <c r="D25" t="n">
-        <v>16.97132400382288</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9960200575788386</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.1832869542352649</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.9990059392679473</v>
-      </c>
+          <t>Education[T.University]</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>12.89021142484044</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-1.827665941073531</v>
-      </c>
-      <c r="D26" t="n">
-        <v>17.26628136770505</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9959053171194922</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.1831471928147342</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.9989886627502361</v>
-      </c>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.1591747548153877</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.08911244820743344</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.7188008343501449</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.7148086911412634</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.4738126651294354</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.0002005573611468809</v>
-      </c>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.0270209753720143</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.007136889897347141</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-0.00866967861602088</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.2984108618977453</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.3023654443248478</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.4228959609117718</v>
-      </c>
+          <t>Trip_Distance</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.0003535667634575962</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.001626756291404897</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2.801087366200032e-05</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.002105491956741074</v>
-      </c>
-      <c r="F29" t="n">
-        <v>6.458167001840657e-102</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.2001358572760471</v>
-      </c>
+          <t>CarOwnershipHH</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-2.469892480437915</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-3.107684038017237</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-3.896553086404765</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.001011289399971809</v>
-      </c>
-      <c r="F30" t="n">
-        <v>5.407853643505791e-23</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1.89620192158243e-31</v>
-      </c>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HHSize</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.3156492180950206</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.1080356822963968</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.1094323373699067</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.09851521104325148</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.05771421934812893</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.2055477189491957</v>
-      </c>
+          <t>UrbPopDensity_origin</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.0005574967930350485</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.0002374420048850417</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.000163969148953849</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.02045711031365725</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2.616779465733225e-05</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.05961467292990824</v>
-      </c>
+          <t>DistSubcenter_origin</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.1780619350386037</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.1283976108067575</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.1143242992275788</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.4762876549702119</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.01330580500882291</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.2020240135168236</v>
-      </c>
+          <t>DistCenter_origin</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.03670153265881358</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-0.03800874359525924</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-0.07784673985927565</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.7820525684712777</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.2044112774003005</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.1595715790961694</v>
-      </c>
+          <t>UrbBuildDensity_origin</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-6.326254141558836e-07</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-1.004607053143141e-07</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-6.737122729872386e-08</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.01480145811831149</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.08843118554613727</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.4659062761584866</v>
-      </c>
+          <t>IntersecDensity_origin</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.004597279482817816</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-0.004329665153150236</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.01515207449798844</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.8122273528251307</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.456784297005206</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.07931121503222638</v>
-      </c>
+          <t>street_length_origin</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.05480551568336565</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.004758052196697666</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.004932081391239167</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.06712235336402991</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.2837653473942791</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.2011559979389411</v>
-      </c>
+          <t>bike_lane_share_origin</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-10.26041616136212</v>
-      </c>
-      <c r="C38" t="n">
-        <v>9.52421641869485</v>
-      </c>
-      <c r="D38" t="n">
-        <v>3.26762020240777</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.5384591730368934</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.02578330945171615</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.6473917866739942</v>
-      </c>
+          <t>LU_UrbFab_origin</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>-0.8097436497685356</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-0.4150051149666659</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-1.023688384483013</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.7045492047512752</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.4175368182494251</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.2630446048018649</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
           <t>LU_Comm_origin</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>10.46054966998313</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1.804476908092091</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-0.2484795132094424</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.00567663922611112</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.08825601022595081</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.887273870575384</v>
-      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2016,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2068,20 +1586,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-40.40268624479922</v>
+        <v>-19.34159820004704</v>
       </c>
       <c r="C2" t="n">
-        <v>4.504376034186117</v>
+        <v>4.514231888300259</v>
       </c>
       <c r="D2" t="n">
-        <v>-17.22504893264673</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>-18.85464141134326</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9998057330614978</v>
+      </c>
       <c r="F2" t="n">
-        <v>0.005547700791387718</v>
+        <v>0.005446962667669696</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9930865866832581</v>
+        <v>0.9966036411603429</v>
       </c>
     </row>
     <row r="3">
@@ -2091,22 +1611,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03607508531070067</v>
+        <v>0.06209092634286376</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2373449324754911</v>
+        <v>0.2376731513287095</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7221269764710249</v>
+        <v>-0.7317715183072194</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9523947292266337</v>
+        <v>0.9175807154687772</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1632072183232566</v>
+        <v>0.1620334997437487</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01534502823584094</v>
+        <v>0.01405169776539758</v>
       </c>
     </row>
     <row r="4">
@@ -2116,22 +1636,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-15.69448523651307</v>
+        <v>-18.36764561341363</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8046438982719011</v>
+        <v>-0.805618035089202</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.285151743443742</v>
+        <v>-1.285141828718059</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9888532195156429</v>
+        <v>0.9965777809473026</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003391095324445893</v>
+        <v>0.00335201387279538</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005229326578800757</v>
+        <v>0.005179700497611024</v>
       </c>
     </row>
     <row r="5">
@@ -2141,22 +1661,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5271925259575808</v>
+        <v>0.5259351468540515</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1037853444875603</v>
+        <v>0.1047797104323444</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2088915646814941</v>
+        <v>-0.2019737896866662</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3821042523501027</v>
+        <v>0.3836075127247589</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5999745174905722</v>
+        <v>0.5963960259096242</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4487703851353378</v>
+        <v>0.4629754214829935</v>
       </c>
     </row>
     <row r="6">
@@ -2166,22 +1686,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4755836119585527</v>
+        <v>0.4504404291363955</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06586201883406777</v>
+        <v>0.062765183325232</v>
       </c>
       <c r="D6" t="n">
-        <v>-19.56636282836268</v>
+        <v>-14.77779932567826</v>
       </c>
       <c r="E6" t="n">
-        <v>0.704833685461806</v>
+        <v>0.7209702097421494</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9191919896336731</v>
+        <v>0.9229520437684828</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9914614776974051</v>
+        <v>0.926598218274848</v>
       </c>
     </row>
     <row r="7">
@@ -2191,22 +1711,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3298603326714331</v>
+        <v>0.3625627211567145</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01124847432910228</v>
+        <v>-0.01145481557057913</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8632381451864223</v>
+        <v>-0.8725471216163874</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5863083098364642</v>
+        <v>0.5458224437704084</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9505486317213999</v>
+        <v>0.9496496225148064</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01056443886473333</v>
+        <v>0.009821153912882402</v>
       </c>
     </row>
     <row r="8">
@@ -2216,22 +1736,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4920567308695831</v>
+        <v>-0.4900155756692559</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1545593828116704</v>
+        <v>-0.1552441714394256</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.09615079027795731</v>
+        <v>-0.1007513884911014</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2160449765134669</v>
+        <v>0.2182110671381621</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1941083344637812</v>
+        <v>0.1921130854534177</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5958332696761001</v>
+        <v>0.5776155728944912</v>
       </c>
     </row>
     <row r="9">
@@ -2241,22 +1761,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.51623583346605</v>
+        <v>2.505484749952908</v>
       </c>
       <c r="C9" t="n">
-        <v>1.838465920421924</v>
+        <v>1.838453009709319</v>
       </c>
       <c r="D9" t="n">
-        <v>1.960176143211913</v>
+        <v>1.962692573256508</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02485157861954586</v>
+        <v>0.02549206310048198</v>
       </c>
       <c r="F9" t="n">
-        <v>1.787267472359264e-18</v>
+        <v>1.668205069779709e-18</v>
       </c>
       <c r="G9" t="n">
-        <v>1.307783357639846e-05</v>
+        <v>1.257970790002912e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2266,22 +1786,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3304125592510334</v>
+        <v>0.3528784527393976</v>
       </c>
       <c r="C10" t="n">
-        <v>1.226486749395184</v>
+        <v>1.225224554182766</v>
       </c>
       <c r="D10" t="n">
-        <v>1.746508787287381</v>
+        <v>1.744396589938576</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8108311189296145</v>
+        <v>0.7981908332266063</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0001550050869455275</v>
+        <v>0.0001551106971788947</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0006899088672304167</v>
+        <v>0.0006938888253404449</v>
       </c>
     </row>
     <row r="11">
@@ -2291,22 +1811,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.592752186217816</v>
+        <v>2.589828330748112</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6546319438290426</v>
+        <v>0.6553629105152733</v>
       </c>
       <c r="D11" t="n">
-        <v>1.325282505130484</v>
+        <v>1.31949624879678</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01991317370039786</v>
+        <v>0.02011540979346346</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002218602797020102</v>
+        <v>0.002195202737538746</v>
       </c>
       <c r="G11" t="n">
-        <v>0.008324867323697948</v>
+        <v>0.008515814324142197</v>
       </c>
     </row>
     <row r="12">
@@ -2316,22 +1836,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.94370736626056</v>
+        <v>2.960032212658643</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8553433034505525</v>
+        <v>0.8564043528409504</v>
       </c>
       <c r="D12" t="n">
-        <v>1.722076335343433</v>
+        <v>1.719350051281474</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0110525242217669</v>
+        <v>0.01080010453231459</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0006642189813785725</v>
+        <v>0.0006513975728030783</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001781722109545962</v>
+        <v>0.000178076736402172</v>
       </c>
     </row>
     <row r="13">
@@ -2341,22 +1861,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-14.78359536651576</v>
+        <v>-45.41693698353708</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1033995362676401</v>
+        <v>-0.1049958177280301</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7103421437246261</v>
+        <v>0.7160783842236471</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9950970117471813</v>
+        <v>0.9999999965613106</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7460308501205628</v>
+        <v>0.7422746771955566</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2524997477067232</v>
+        <v>0.2479258883360627</v>
       </c>
     </row>
     <row r="14">
@@ -2366,22 +1886,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2516707274088332</v>
+        <v>0.2673124768615094</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.01729871063727808</v>
+        <v>-0.01716981264193016</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.09350505219792311</v>
+        <v>-0.08466740327766024</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7685852073468651</v>
+        <v>0.7544814138399444</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9405729590327527</v>
+        <v>0.9410343124433546</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8145020425175422</v>
+        <v>0.8314233207701875</v>
       </c>
     </row>
     <row r="15">
@@ -2391,22 +1911,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-11.0183388189229</v>
+        <v>-18.45851239149162</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8111853113838543</v>
+        <v>0.8118789245930956</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05896932426528061</v>
+        <v>-0.05170704961450562</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9777363068311316</v>
+        <v>0.9990866896110754</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008748898859641144</v>
+        <v>0.008206099844878786</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9244460973464759</v>
+        <v>0.9337361381947065</v>
       </c>
     </row>
     <row r="16">
@@ -2416,22 +1936,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-28.02456946640776</v>
+        <v>-10.11025220590904</v>
       </c>
       <c r="C16" t="n">
-        <v>1.492413475200663</v>
+        <v>1.494498051092122</v>
       </c>
       <c r="D16" t="n">
-        <v>1.998910081141407</v>
+        <v>2.037993475009416</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999943021701198</v>
+        <v>0.9837539721937965</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003225422687456134</v>
+        <v>0.003205838617390116</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003934271818850416</v>
+        <v>0.003203026203534092</v>
       </c>
     </row>
     <row r="17">
@@ -2441,22 +1961,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3208380764554679</v>
+        <v>0.2976862692584156</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3885386930216516</v>
+        <v>0.3895935793664355</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2141623010232162</v>
+        <v>0.2293800486281719</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7353092346459165</v>
+        <v>0.7532719975325771</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1208196251075439</v>
+        <v>0.1188487006573546</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6544547085713099</v>
+        <v>0.631049526529609</v>
       </c>
     </row>
     <row r="18">
@@ -2466,22 +1986,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.643069593473038</v>
+        <v>2.74501875858267</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3912407813838163</v>
+        <v>0.3963235488406399</v>
       </c>
       <c r="D18" t="n">
-        <v>1.004502679826399</v>
+        <v>0.9020724805111575</v>
       </c>
       <c r="E18" t="n">
-        <v>0.006994814343487737</v>
+        <v>0.003967939039806885</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2513158926015404</v>
+        <v>0.2367947424566292</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03948283784547479</v>
+        <v>0.05479641906497482</v>
       </c>
     </row>
     <row r="19">
@@ -2491,22 +2011,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.743493841914634</v>
+        <v>3.697646395728637</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1428753403562726</v>
+        <v>0.1450914072289253</v>
       </c>
       <c r="D19" t="n">
-        <v>1.988456236922817</v>
+        <v>2.047320542402404</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002431273777668771</v>
+        <v>0.002589827881852252</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7530544902868574</v>
+        <v>0.7477675943849469</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001381017459125848</v>
+        <v>0.0009145227615104253</v>
       </c>
     </row>
     <row r="20">
@@ -2516,22 +2036,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-22.78936082585806</v>
+        <v>-277.0463463872038</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5586880691878959</v>
+        <v>0.5611770399078408</v>
       </c>
       <c r="D20" t="n">
-        <v>1.368225912561646</v>
+        <v>1.450202233058901</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999630583311268</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3895947042278416</v>
+        <v>0.3844704630846578</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04450680768693267</v>
+        <v>0.03123957669931132</v>
       </c>
     </row>
     <row r="21">
@@ -2541,22 +2061,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.258207410984382</v>
+        <v>1.273716272915556</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9574617446229687</v>
+        <v>0.9574948896275033</v>
       </c>
       <c r="D21" t="n">
-        <v>0.562754956652071</v>
+        <v>0.5891390490267074</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1773368729144541</v>
+        <v>0.1718468729485371</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0009336946250958733</v>
+        <v>0.000932107689888004</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2877075947387582</v>
+        <v>0.2628530026596543</v>
       </c>
     </row>
     <row r="22">
@@ -2566,20 +2086,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>38.51518682547746</v>
+        <v>17.56240816350217</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.012998395482787</v>
+        <v>-2.01401335729349</v>
       </c>
       <c r="D22" t="n">
-        <v>13.50335824416102</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
+        <v>15.0646327248305</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9998236032389435</v>
+      </c>
       <c r="F22" t="n">
-        <v>0.1489602257285935</v>
+        <v>0.1488094240413496</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9945802907272608</v>
+        <v>0.9972863469297063</v>
       </c>
     </row>
     <row r="23">
@@ -2589,20 +2111,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38.41533083579436</v>
+        <v>17.47332091607417</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.699164238086845</v>
+        <v>-2.6987476192886</v>
       </c>
       <c r="D23" t="n">
-        <v>11.15090106067371</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+        <v>12.71294354314023</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9998244980309039</v>
+      </c>
       <c r="F23" t="n">
-        <v>0.0600079092580072</v>
+        <v>0.06008211724875438</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9955244623197893</v>
+        <v>0.9977099649271614</v>
       </c>
     </row>
     <row r="24">
@@ -2612,416 +2136,397 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.16734332911145</v>
+        <v>19.22927952818991</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.872435839604119</v>
+        <v>-1.872385145503137</v>
       </c>
       <c r="D24" t="n">
-        <v>13.83193863217548</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+        <v>15.37057235192056</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9998068611895727</v>
+      </c>
       <c r="F24" t="n">
-        <v>0.1740588554889035</v>
+        <v>0.1739460193858647</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9944484136713323</v>
+        <v>0.9972312369990542</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>40.40646782285334</v>
+        <v>19.77938233750422</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.874904615577251</v>
+        <v>-2.080532925217741</v>
       </c>
       <c r="D25" t="n">
-        <v>13.57713672771702</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
+        <v>15.38522655625795</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9998013359591579</v>
+      </c>
       <c r="F25" t="n">
-        <v>0.1761158307042447</v>
+        <v>0.131793046825485</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9945506793830767</v>
+        <v>0.9972285972897733</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>40.78719458815321</v>
+        <v>-0.2559060963586598</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.081760387940036</v>
+        <v>0.1150303606238561</v>
       </c>
       <c r="D26" t="n">
-        <v>13.78076381658945</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>0.6179156305368246</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.524304685773216</v>
+      </c>
       <c r="F26" t="n">
-        <v>0.131511771262525</v>
+        <v>0.3543925906120432</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9944689528681807</v>
+        <v>0.001265409459703632</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.2598215555186171</v>
+        <v>0.02171175562858196</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1155540346555684</v>
+        <v>0.004265755506869623</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6263510887422444</v>
+        <v>-0.0100507349928172</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5183388943877458</v>
+        <v>0.3507911358620165</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3542989204049675</v>
+        <v>0.5333996819216482</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001118547295257586</v>
+        <v>0.341977347057803</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02185704467532038</v>
+        <v>-0.0003613153845077533</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00424474098038027</v>
+        <v>-0.001683193287370033</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01064763391544224</v>
+        <v>2.414305454540718e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3475079976045741</v>
+        <v>0.0009813553257325823</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5364650483280506</v>
+        <v>7.732477174120997e-103</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3159088749652211</v>
+        <v>0.2559629043767753</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0003613875594920131</v>
+        <v>-2.291584930465416</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.001682394940620565</v>
+        <v>-3.150796394689792</v>
       </c>
       <c r="D29" t="n">
-        <v>2.446138460977371e-05</v>
+        <v>-3.877145423590293</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0009528884710871581</v>
+        <v>0.002380418530075359</v>
       </c>
       <c r="F29" t="n">
-        <v>1.015932429286188e-102</v>
+        <v>7.566626649124211e-24</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2505213628620457</v>
+        <v>4.687601453567664e-31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-2.252316751680063</v>
+        <v>0.1887621595855697</v>
       </c>
       <c r="C30" t="n">
-        <v>-3.141079015023659</v>
+        <v>0.1502879001161471</v>
       </c>
       <c r="D30" t="n">
-        <v>-3.867136569265224</v>
+        <v>0.1666013193627986</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003036251763567086</v>
+        <v>0.2787064513163093</v>
       </c>
       <c r="F30" t="n">
-        <v>9.618676229212501e-24</v>
+        <v>0.00804725898586834</v>
       </c>
       <c r="G30" t="n">
-        <v>6.93413942329386e-31</v>
+        <v>0.0444269158767498</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2015777900330513</v>
+        <v>0.0004805712126984614</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1501434182710998</v>
+        <v>0.0002031410830957219</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1631810235141785</v>
+        <v>0.0001432683356613056</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2548154244061999</v>
+        <v>0.02366608058981921</v>
       </c>
       <c r="F31" t="n">
-        <v>0.008147055090550921</v>
+        <v>0.0003386578439588575</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04921657156470259</v>
+        <v>0.1085183359211335</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0004816593847055233</v>
+        <v>0.1111519602206554</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0002021840394262548</v>
+        <v>0.08025102295701847</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0001427068486819934</v>
+        <v>0.1047125507020611</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02376526321165844</v>
+        <v>0.6158787896932111</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0003618277532047994</v>
+        <v>0.1130574049636233</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1109130890088559</v>
+        <v>0.2320604351717764</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1105593155220462</v>
+        <v>-0.03653210244736516</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08044813582595788</v>
+        <v>-0.04151305706415798</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1025500576588893</v>
+        <v>-0.05488919979243846</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6179265121457749</v>
+        <v>0.7374025461100504</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1121343184700466</v>
+        <v>0.1692423869594901</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2419465064207239</v>
+        <v>0.3105454646827061</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.0353279036833768</v>
+        <v>-5.868102254968736e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.04168701766728618</v>
+        <v>-4.962447054179484e-08</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0545148897131679</v>
+        <v>-5.227319696255236e-08</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7462674163850074</v>
+        <v>0.01226261931931823</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1674302543731983</v>
+        <v>0.4018416494203456</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3128968514075782</v>
+        <v>0.5790096410843816</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.893034434048269e-07</v>
+        <v>-0.01492683212254742</v>
       </c>
       <c r="C35" t="n">
-        <v>-4.916918019521177e-08</v>
+        <v>-0.0071204411461698</v>
       </c>
       <c r="D35" t="n">
-        <v>-5.18797813861162e-08</v>
+        <v>0.01786825305762721</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01230628844862418</v>
+        <v>0.405495260892019</v>
       </c>
       <c r="F35" t="n">
-        <v>0.406442325958974</v>
+        <v>0.2299095476153689</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5831345501720352</v>
+        <v>0.03630552890576565</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.01505104583920669</v>
+        <v>-0.06745944683750793</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.007077692420933497</v>
+        <v>0.001975473859121031</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01816941761777749</v>
+        <v>0.007091613848583781</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4029795199395417</v>
+        <v>0.01738893408641191</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2326943417110384</v>
+        <v>0.6801059182886846</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03348092319335016</v>
+        <v>0.05966549989457281</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.06749295799794583</v>
+        <v>-8.291208731329478</v>
       </c>
       <c r="C37" t="n">
-        <v>0.001982035534377311</v>
+        <v>8.490349027778786</v>
       </c>
       <c r="D37" t="n">
-        <v>0.006968693034903537</v>
+        <v>1.224551118499351</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01715154899827122</v>
+        <v>0.5756109013407602</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6793191784420923</v>
+        <v>0.04421454724452233</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06447240610149242</v>
+        <v>0.864018313851567</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-8.175007446968195</v>
+        <v>0.9676545856049678</v>
       </c>
       <c r="C38" t="n">
-        <v>8.505405551652819</v>
+        <v>-0.291093213638199</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8733669490417222</v>
+        <v>-0.5324634675898098</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5810682801126675</v>
+        <v>0.6202105386685076</v>
       </c>
       <c r="F38" t="n">
-        <v>0.04385023158189968</v>
+        <v>0.5674789683703585</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9030140500050474</v>
+        <v>0.558827589828594</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9803711116832061</v>
+        <v>10.58067415642182</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.286903355220342</v>
+        <v>1.01624427630531</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.5540503804855992</v>
+        <v>-0.3393498639567573</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6151647503481528</v>
+        <v>0.003283668677157286</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5731121076261572</v>
+        <v>0.3331441004985422</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5439374825440391</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>10.59793303315442</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1.005461620853457</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-0.352754321167238</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.00325541391332809</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.3386308488877752</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.8450755219893261</v>
+        <v>0.8506211148073221</v>
       </c>
     </row>
   </sheetData>
@@ -3035,7 +2540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3086,22 +2591,12 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-53.31014832467145</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.477480979174761</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-13.59424151082861</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>0.03285061518355221</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9601274131048614</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3109,24 +2604,12 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.09684474706064097</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3638610453831713</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.7824667971899298</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.8785256287245843</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.03599703507897174</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0106159452694137</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3134,24 +2617,12 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-16.94347447647071</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.7466965930932385</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-1.294510176544333</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9940658953666675</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.007293145878706928</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.005213276039669009</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3159,24 +2630,12 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.2890889752868088</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.01432385677856539</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.2097357443945523</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.6578875046567967</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9428887363837204</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4422349910775979</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3184,24 +2643,12 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>-17.59778216301691</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.3352787914921137</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-25.68052359452325</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9978120597466922</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6672516028638353</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9994246479494117</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3209,24 +2656,12 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.6069331124714665</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0591391828569568</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.8630112650826489</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.3170936793791544</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7466294080322275</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.01068149228677291</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3234,24 +2669,12 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>-0.4467025739039997</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.0685336423271439</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.1959049354407763</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.2756791780935962</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.5735790210447105</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.2853199105119996</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3259,24 +2682,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2.760846040517082</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.033722424682755</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.018634976666223</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.01558738028173295</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8.017331465767919e-22</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.758569889890976e-06</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3284,24 +2695,12 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.8805013122766903</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.567937585669209</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.868384303996326</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.5331831226920883</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.270596608417232e-06</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0002035582075470869</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3309,24 +2708,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2.762708227284724</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7959279515347332</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.350373968110398</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.01476629807471738</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0002991011072442957</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.00674084949051045</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3334,24 +2721,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>3.384782327808767</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.063732210104739</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.693870598605028</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.004196440652524611</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7.275077082793067e-05</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0001933951307211598</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3359,24 +2734,12 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>-14.96794816514337</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08883830912136718</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.8368130671396925</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.9951527309777352</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.7745743055014067</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.1434245813281617</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3384,24 +2747,12 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.7183633125146356</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2339951333065646</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.2129515350023675</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.4084803508518429</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.3297272343255271</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.6037349308329704</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3409,24 +2760,12 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>-18.22668545162406</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.8031722168797015</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.2255899300058609</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9989803662335132</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.008676112924166359</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.6917956331517134</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3434,24 +2773,12 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>-15.21988531608399</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.833826649959442</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.15263336558644</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9983979423929262</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0008191865498147252</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.001801544822109374</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3459,24 +2786,12 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.4165343179746192</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2721187686502917</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.1769392317781236</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.6767977115246694</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.2869387254854978</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.7160178739780576</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3484,24 +2799,12 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2.646238298073063</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.6835128354639811</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.8072431670506371</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.01100735506271613</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.05102154930716988</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.1040846940787964</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3509,24 +2812,12 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>3.209630715193109</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.214554239957393</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.975175745491094</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.01188847150888766</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.643997987649896</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.002068706637239031</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3534,24 +2825,12 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>-8.577304551010357</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3831461130884039</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.168201309756223</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9815999837077193</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.5247810010721035</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.06889472623003744</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3559,24 +2838,12 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>0.4981793449447973</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.8542367777583604</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.6915718424194369</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.6702770405137872</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.004000594052428877</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.2043021775988331</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3584,22 +2851,12 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>52.87105593707267</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.779352161236965</v>
-      </c>
-      <c r="D22" t="n">
-        <v>9.685998390172252</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>0.192734003309768</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.9715844766334187</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3607,22 +2864,12 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>52.58305787316677</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-2.695697661151926</v>
-      </c>
-      <c r="D23" t="n">
-        <v>7.176247991800992</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.05602287446074562</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.9789452702797444</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3630,418 +2877,207 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>54.61802675139478</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-1.781283876579954</v>
-      </c>
-      <c r="D24" t="n">
-        <v>9.850428188279285</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="n">
-        <v>0.1868738398972497</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.9711022758124429</v>
-      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>54.19752104542049</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-2.182465909154847</v>
-      </c>
-      <c r="D25" t="n">
-        <v>9.505793445969415</v>
-      </c>
+          <t>Education[T.University]</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="n">
-        <v>0.108161273164257</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.9721129040157584</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>55.00202397702887</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-1.917418378773887</v>
-      </c>
-      <c r="D26" t="n">
-        <v>9.764763949076167</v>
-      </c>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="n">
-        <v>0.1561618817036274</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.9713534766074088</v>
-      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.3858157240099991</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.07595330542119222</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.7010455681891912</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.359953565443742</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.5483237482300709</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.0003500678512989691</v>
-      </c>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.01228629464900783</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.008913193468920336</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-0.007327180068634533</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.6370066966025008</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.2131641231824822</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.498852644638661</v>
-      </c>
+          <t>Trip_Distance</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.0004758337812653135</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.001788197155024675</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3.125828985278887e-05</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.0006395529881855588</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.79103081058672e-106</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.157337270988915</v>
-      </c>
+          <t>CarOwnershipHH</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-2.343459713369735</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-3.115547144197143</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-3.943038632143153</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.001715761021831214</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.260554812544544e-24</v>
-      </c>
-      <c r="G30" t="n">
-        <v>4.717092270074795e-34</v>
-      </c>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HHSize</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.2367417902346856</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.1728809559635718</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.1491577591811574</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.1874591078269334</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.00318083742426957</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.07863624110652605</v>
-      </c>
+          <t>UrbPopDensity_origin</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.0005164451952717732</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.0002113540614004605</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.0001218131235277783</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.01986830978387565</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.0002036762330800653</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.1578272046395429</v>
-      </c>
+          <t>DistSubcenter_origin</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.1808665213762564</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.09947387815140557</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.1024670501230953</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.4110012082774754</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.05989796000599124</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.2499730108108992</v>
-      </c>
+          <t>DistCenter_origin</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.01013131573603734</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-0.06201617722616064</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-0.0375520349601634</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.9289176584070815</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.04545054263393057</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.4859767276934317</v>
-      </c>
+          <t>UrbBuildDensity_origin</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-5.22315882772309e-07</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-5.401958649414997e-08</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-1.429528822931553e-08</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.03033921036576921</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.3643589104859646</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.8755749184369331</v>
-      </c>
+          <t>IntersecDensity_origin</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.02481205437425813</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-0.006340611975499953</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.01884216864452132</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.1909406344675815</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.293273266355258</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.03147955266532926</v>
-      </c>
+          <t>street_length_origin</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.08099083322544712</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.007528050463451681</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.006922767614666898</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.006093269196544482</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.1300417978718007</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.08935421050130436</v>
-      </c>
+          <t>bike_lane_share_origin</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-12.49933377947814</v>
-      </c>
-      <c r="C38" t="n">
-        <v>7.756657558295815</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-1.939409644290445</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.4156220306503542</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.07732881466734326</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.7900727815116355</v>
-      </c>
+          <t>LU_UrbFab_origin</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1.341320341655168</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-0.1713110044066365</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-0.3068625198189629</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.496300783058389</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.7428580430318186</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.7377332776559147</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
           <t>LU_Comm_origin</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>11.05765509336966</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1.454349304237803</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.1362150944474403</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.002058835543049862</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.1735870806200051</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.93846089117539</v>
-      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4054,7 +3090,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4105,12 +3141,22 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>-33.11130973295289</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.35165719907417</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-19.20123621316724</v>
+      </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.08628691320223258</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9981003591532188</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4118,12 +3164,24 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>0.1476951400620287</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3673381907242532</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.6214901476465458</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8063337971325617</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.03158148485063539</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04208445817136373</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4131,12 +3189,24 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>-119.2106200353062</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.6392831736033067</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.115088712970765</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01875949537240079</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01347021379352526</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4144,12 +3214,24 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0.4875955667678824</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.08039020710388407</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.1384161763764218</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4222557299691007</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6849061621743213</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6199208997016185</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4157,12 +3239,24 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>0.8720074434823976</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.4248546971596466</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-17.25274395074959</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4925380218118813</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.54871871314697</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9785279068365843</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4170,12 +3264,24 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0.3210171781798919</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.04522250278729487</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.917773550148412</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.588512767360738</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8032492427384553</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.00884553794704355</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4183,12 +3289,24 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>-0.5546012820057881</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.1073547737369856</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.3120448808151121</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1583615192610694</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3696647048728413</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.08957881278816741</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4196,12 +3314,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>2.724681023636398</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.92410773347893</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.015667458335967</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.01501113446898777</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.667367630897167e-20</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.436730529365354e-06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4209,12 +3339,24 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>0.6266789047624133</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.437581741943172</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.040917815477477</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6495770957390676</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8.444361784054523e-06</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.231134107887188e-05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4222,12 +3364,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>2.671897334344989</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6593657463392751</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.31317821470363</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.01665571258552809</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.002219012761523215</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.007223653575778611</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4235,12 +3389,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>3.102570183621671</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9802524150428515</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.638664325018208</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.007178657328212558</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0001524548865913365</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0002964861500337326</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4248,12 +3414,24 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>-14.75629693108658</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.05833075305927311</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6134588248624382</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9946842199005264</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8522060836274425</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.2985909551198892</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4261,12 +3439,24 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>0.3822743496895342</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.07757782213887301</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.02453766419081783</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6540900653495954</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7400865487172517</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9503690418963497</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4274,12 +3464,24 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>-30.07548016557333</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9854206685176994</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.294665770469694</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9999951814630055</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.001237833394739238</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.6019143603435746</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4287,12 +3489,24 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>-16.59382821681681</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.111093784214815</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.81200617199552</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9988733027523297</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0240888202729921</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01779222555113771</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4300,12 +3514,24 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>0.1054670119712093</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2988499141641081</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.05906511922200289</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9113876758513543</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2362397096714455</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9025302097593479</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4313,12 +3539,24 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>2.700435463358798</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2626759323333704</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7826929235810949</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.00328510902143557</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.4327763634952932</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.100002677380049</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4326,12 +3564,24 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>3.388782092104434</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01055364342045638</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.743177852205524</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.005670905815965068</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9813047498833063</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.005880474265995696</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4339,12 +3589,24 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>-13.53239730587698</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1528648268100815</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.30449980239356</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.997156331085242</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.800711887927991</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.04388833683601697</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4352,12 +3614,24 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>1.564418115564935</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.200890033390294</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7493944055770573</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.09070776192496809</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7.554490359349441e-05</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1703264790442662</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4365,12 +3639,22 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>32.55993985554581</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.229963532712354</v>
+      </c>
+      <c r="D22" t="n">
+        <v>15.73824801922941</v>
+      </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.4865509927664502</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9984429633642209</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4378,12 +3662,22 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>32.26052679039008</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.076027123079379</v>
+      </c>
+      <c r="D23" t="n">
+        <v>13.12102986507534</v>
+      </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0.2490155692706121</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9987018931141924</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4391,220 +3685,395 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>33.90396722972425</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.336706538047111</v>
+      </c>
+      <c r="D24" t="n">
+        <v>15.72166244937575</v>
+      </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>0.4460237306835213</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9984446042254587</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+          <t>Education[T.University]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>34.46210982719084</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.323109308477138</v>
+      </c>
+      <c r="D25" t="n">
+        <v>15.75721883224274</v>
+      </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0.4513333077578618</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9984410865201168</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.3379980835481089</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1476638910808808</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.6503139302512564</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3989306733000715</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2357769903660226</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0009080361003692443</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.02365219011413346</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.00448123941691781</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.005118495331436079</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.3225301891810909</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.5228050825068835</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.6390028048645623</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+          <t>Trip_Distance</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.000390619493237008</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.001659686487658636</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.899107954715011e-05</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0004304635338971968</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.917866648043584e-102</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1824951009486671</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+          <t>CarOwnershipHH</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-2.385271841439287</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-3.068660272472627</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-3.896774703787737</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.000503665199539572</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8.937442904138675e-24</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.800446680839618e-32</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1825588168412195</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1199765180693091</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2216643998562941</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2804178067906843</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.03428020089496105</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.007910734949698132</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HHSize</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+          <t>UrbPopDensity_origin</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0004678994700405952</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.000185327094037604</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0001440793112117839</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.02093783792996044</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.000802342232423586</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.1002964015329896</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+          <t>DistSubcenter_origin</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1191142139361947</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.08328703130068021</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.08142726970823611</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5811685586937985</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.1030597373316885</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.356444574657957</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+          <t>DistCenter_origin</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.001873804401391865</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.02318426300812875</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.05857409210235261</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9862724575893204</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.4385944479945982</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.2888899759540736</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+          <t>UrbBuildDensity_origin</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-4.985010631465377e-07</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-5.544771556741139e-08</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-6.632296214149204e-08</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.02408476401355144</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.3387985390057155</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.4835849890164204</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+          <t>IntersecDensity_origin</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.02171763505324615</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.00450160906489533</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.01632352287251319</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.2327036813371407</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.4417248688840633</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.05772936657241715</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+          <t>street_length_origin</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.075660783865603</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.002830209682407095</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.005483017075664067</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.006819816936369472</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5429161289986689</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.1711854299963216</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+          <t>bike_lane_share_origin</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-7.576616357220751</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9.705402995004542</v>
+      </c>
+      <c r="D37" t="n">
+        <v>7.159130175326841</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.6044949395183385</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.02406629361378184</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.3197970201281071</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+          <t>LU_UrbFab_origin</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.11646331904712</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.1399858314950858</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.8750978520515486</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5479947571488351</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.7856703274581079</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.347011972599263</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
           <t>LU_Comm_origin</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>9.680332172438186</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.405785514221556</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.5378453856558837</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.004648620563834275</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1798664108492982</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.7612232021467439</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4617,7 +4086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4668,24 +4137,12 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-5.484867156154517</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.66931295047741</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-51.6747830085525</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9815841337787472</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.00890892998454572</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9999868810634808</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4693,24 +4150,12 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.2212638208835954</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3644102765264028</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.6647780214424955</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.7256293996760027</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.03423499238506512</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.02911153091280097</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4718,24 +4163,12 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-15.46739351334206</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.79390104410577</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-1.163079754940062</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9877340908633316</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.005374319964597207</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.01158159815230802</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4743,24 +4176,12 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.5549594896853899</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08335140551113007</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.2688485496890786</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3608442390590374</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.6756889852294685</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.3380049488396338</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4768,24 +4189,12 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.4211587654890432</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.06350039376240685</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-20.3618562160132</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.7459606417610245</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9260347622602314</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9947138313472784</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4793,24 +4202,12 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.1201243724853176</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.01169564366167866</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.7550181567629676</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.8501030825871941</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9493428692208025</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.02487748537838433</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4818,24 +4215,12 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>-0.2770352663731436</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.08038312276594163</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.1610523707980596</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.4955120635820075</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.5081771156667825</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.3766174231824694</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4843,24 +4228,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2.537335231022023</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.015335696734673</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.939502551187808</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.02702589657886686</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.822332192411974e-21</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.240608898627257e-05</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4868,24 +4241,12 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.5907966841535282</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.445292703789072</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.970377357538094</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.6735212788179816</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.421109172685119e-05</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7.920580412700988e-05</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4893,24 +4254,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2.522026740457771</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5586834896599385</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.283486643689133</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.02461364013767663</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.009855893755089537</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.008346198577550475</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4918,24 +4267,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2.676161075897649</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9689530981806916</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.781780645902577</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.02230265903433595</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0001564422067461924</v>
-      </c>
-      <c r="G12" t="n">
-        <v>9.654254691787492e-05</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4943,24 +4280,12 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>-17.47631531603013</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.07653418270265015</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.5340690719263593</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.9982317757367001</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.8039746790785502</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.3756952610151519</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4968,24 +4293,12 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>-0.4319194071783671</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.07229257893329395</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.04579998937902006</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.6997760971307765</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.7601108541052896</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.9110665512058992</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4993,24 +4306,12 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>-32.22465043472487</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.8001645478600559</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.6666929890820479</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9999984345129493</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.01100910677011518</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.2467278971676741</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5018,24 +4319,12 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>-9.705460192977805</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.288744984359865</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.07595105920664</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9822365210721625</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0121001908225152</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.005093376998902391</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5043,24 +4332,12 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.177953405255318</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3420484626179505</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.2932209955444934</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.852530426908264</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.1803154836513496</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.5530991231113758</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5068,24 +4345,12 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2.362074015818171</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2738343331858772</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.067287313527004</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.01774856423102162</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.4285827234718304</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.03125255459693461</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5093,24 +4358,12 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>3.788696164617479</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.295097655925817</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.807888125385425</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.003047671198869335</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.5197631739624928</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.004344119194637324</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5118,24 +4371,12 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>-13.75224856715893</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-0.02328367821295737</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.375722523327653</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.997732909544048</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.9705788598243236</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.0312784991470365</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5143,24 +4384,12 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>1.348315907228443</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.175670223346308</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.9552990739971788</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.1503509935112295</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.0001014123974130543</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.07104241863662621</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5168,24 +4397,12 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>6.183062128433826</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-2.04386916516814</v>
-      </c>
-      <c r="D22" t="n">
-        <v>49.07288685496418</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9792379199697265</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.1961586577711185</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.9999875416199162</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5193,24 +4410,12 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>5.526315181786437</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-2.737678068360843</v>
-      </c>
-      <c r="D23" t="n">
-        <v>46.66440840390486</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9814428521178256</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.09148741546538287</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.9999881530724287</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5218,424 +4423,207 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>7.797527676030414</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-1.763375038988704</v>
-      </c>
-      <c r="D24" t="n">
-        <v>49.01864280567659</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9738182293640846</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.2601979215314698</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.9999875553911253</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>8.213986467291239</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-1.797296542264657</v>
-      </c>
-      <c r="D25" t="n">
-        <v>48.66017292755179</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.972420544811142</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.2531046920986117</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.9999876463976723</v>
-      </c>
+          <t>Education[T.University]</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>8.593018945999793</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-1.980146548046138</v>
-      </c>
-      <c r="D26" t="n">
-        <v>49.15749997841387</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9711483524170833</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.2065778562906402</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.9999875201387579</v>
-      </c>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.535280493283657</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-0.02107605305103225</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.5450671360841898</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.2003492579671319</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.8663959313707827</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.004813622349315328</v>
-      </c>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.02265169587330657</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.005023931267773982</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-0.01415404422590474</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.3419180324986214</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.4787163626276065</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.1901526480899585</v>
-      </c>
+          <t>Trip_Distance</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.0004021673272269244</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.001719134165622299</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2.172966984266636e-05</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.0005081199163842474</v>
-      </c>
-      <c r="F29" t="n">
-        <v>9.388082271024444e-104</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.3275728546042269</v>
-      </c>
+          <t>CarOwnershipHH</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-2.557354068968919</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-2.9966573059065</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-3.823339982696457</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.00019889397722686</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2.208191108651719e-23</v>
-      </c>
-      <c r="G30" t="n">
-        <v>4.811439421861162e-33</v>
-      </c>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HHSize</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.1604893464113832</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.09478746704973695</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.1374257104941033</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.3829282586518868</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.09947013599339354</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.109162392489427</v>
-      </c>
+          <t>UrbPopDensity_origin</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.0004808485787633915</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.0002146708019117341</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.0001831332198648001</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.02723699394707808</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.0001356127712912859</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.03537016863789699</v>
-      </c>
+          <t>DistSubcenter_origin</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.1432732442021217</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.1025909061647312</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.1190249942009032</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.5214598342241472</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.04518632102181418</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.1798998599168031</v>
-      </c>
+          <t>DistCenter_origin</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.002778176679482817</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-0.04628034866353012</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-0.07669286343541312</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.980610653207072</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.1287965962364782</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.1648667412294611</v>
-      </c>
+          <t>UrbBuildDensity_origin</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-4.798118427125358e-07</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-6.526868786088834e-08</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-9.72735864470307e-08</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.04281027374982148</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.2706963166019265</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.2977934283805804</v>
-      </c>
+          <t>IntersecDensity_origin</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.02624791855560766</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-0.005630652204011813</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.01797969712309979</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.1721198902299885</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.3419250199524019</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.03602975297507891</v>
-      </c>
+          <t>street_length_origin</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.08532043984099462</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.0004911141102158456</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.003714610458384187</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.005468215516957538</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.915658148887929</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.3469123598862487</v>
-      </c>
+          <t>bike_lane_share_origin</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-5.810779049665871</v>
-      </c>
-      <c r="C38" t="n">
-        <v>6.853696892431637</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1.168227854110073</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.7082329343329765</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.112722918024173</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.8708358250763152</v>
-      </c>
+          <t>LU_UrbFab_origin</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1.230728128731739</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-0.4786709449469708</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-1.432836435549647</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.527566936930564</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.356652062060279</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.1216396553798216</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
           <t>LU_Comm_origin</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>8.945791367197149</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1.100701740876436</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.05478068727528881</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.01133397756462108</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.2940367394312725</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.9750328607943629</v>
-      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5648,7 +4636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5700,22 +4688,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-6.192157824791318</v>
+        <v>-6.737757420702575</v>
       </c>
       <c r="C2" t="n">
-        <v>5.063490539169051</v>
+        <v>5.038969510922149</v>
       </c>
       <c r="D2" t="n">
-        <v>-20.44293209047127</v>
+        <v>-21.07708865569998</v>
       </c>
       <c r="E2" t="n">
-        <v>0.997909118750536</v>
+        <v>0.9983883828444372</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01088020718371453</v>
+        <v>0.01116475159147651</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9986622116114624</v>
+        <v>0.9989844344518866</v>
       </c>
     </row>
     <row r="3">
@@ -5725,22 +4713,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4385501088395439</v>
+        <v>0.4701123081899247</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2746753035813493</v>
+        <v>0.2649161395819156</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5890440118704913</v>
+        <v>-0.6011397781158908</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4957446949092995</v>
+        <v>0.4617357913724782</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1038853813823278</v>
+        <v>0.1160238689787153</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05104962194866537</v>
+        <v>0.04649914306860094</v>
       </c>
     </row>
     <row r="4">
@@ -5750,22 +4738,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-43.06912668123701</v>
+        <v>-39.57391315006468</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8110310771589618</v>
+        <v>-0.8132340059541526</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.198271101754148</v>
+        <v>-1.204512316945561</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999652029873</v>
+        <v>0.9999998157173247</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00274008918540838</v>
+        <v>0.002656739288100961</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0078346903486068</v>
+        <v>0.007461537206484414</v>
       </c>
     </row>
     <row r="5">
@@ -5775,22 +4763,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6949767262586728</v>
+        <v>0.7014968814809017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01109491451500733</v>
+        <v>0.005826732597731232</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.199569301044776</v>
+        <v>-0.1936189500850138</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2809725963166718</v>
+        <v>0.2768034678291466</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9550760998879271</v>
+        <v>0.9763987888404138</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4695816779407919</v>
+        <v>0.4820983780420691</v>
       </c>
     </row>
     <row r="6">
@@ -5800,22 +4788,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7891170933654829</v>
+        <v>0.7376548573675682</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1189173685919959</v>
+        <v>0.08697590057496658</v>
       </c>
       <c r="D6" t="n">
-        <v>-20.35198201619869</v>
+        <v>-16.39692767721546</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5438490099375924</v>
+        <v>0.5726482804172689</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8543832171834422</v>
+        <v>0.8930741952579728</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9987249100260284</v>
+        <v>0.9925884429633087</v>
       </c>
     </row>
     <row r="7">
@@ -5825,22 +4813,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6343312751352699</v>
+        <v>0.6704108720581329</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.08097641926103442</v>
+        <v>-0.08430151313300906</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6645185037216772</v>
+        <v>-0.6745089683172435</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3187645533496857</v>
+        <v>0.2876457755414171</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6533196138969315</v>
+        <v>0.6400847949085757</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04818946753865493</v>
+        <v>0.04486275830585452</v>
       </c>
     </row>
     <row r="8">
@@ -5850,22 +4838,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5658093250396597</v>
+        <v>-0.5705599986762927</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1399466750792658</v>
+        <v>-0.1421421069087566</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2254053464563253</v>
+        <v>-0.2288346572708665</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1701532573520671</v>
+        <v>0.1664685191389279</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2390243703240459</v>
+        <v>0.231706457278097</v>
       </c>
       <c r="G8" t="n">
-        <v>0.212865901494625</v>
+        <v>0.2054003396484633</v>
       </c>
     </row>
     <row r="9">
@@ -5875,22 +4863,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.695539830513102</v>
+        <v>2.691560117149999</v>
       </c>
       <c r="C9" t="n">
-        <v>1.930138531378246</v>
+        <v>1.922550808311219</v>
       </c>
       <c r="D9" t="n">
-        <v>2.084723108168858</v>
+        <v>2.083062906555518</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01567211655355754</v>
+        <v>0.01602714090736658</v>
       </c>
       <c r="F9" t="n">
-        <v>1.909465749684768e-20</v>
+        <v>2.453628000653191e-20</v>
       </c>
       <c r="G9" t="n">
-        <v>5.434790676393945e-06</v>
+        <v>5.387965462609202e-06</v>
       </c>
     </row>
     <row r="10">
@@ -5900,22 +4888,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3419872787671284</v>
+        <v>-0.3097023595707033</v>
       </c>
       <c r="C10" t="n">
-        <v>1.480415074419537</v>
+        <v>1.467451707854187</v>
       </c>
       <c r="D10" t="n">
-        <v>2.049584806525702</v>
+        <v>2.041739757285936</v>
       </c>
       <c r="E10" t="n">
-        <v>0.826147588424434</v>
+        <v>0.8422557907168231</v>
       </c>
       <c r="F10" t="n">
-        <v>5.151889579223028e-06</v>
+        <v>6.064757121175752e-06</v>
       </c>
       <c r="G10" t="n">
-        <v>6.81974199669563e-05</v>
+        <v>7.153770570662155e-05</v>
       </c>
     </row>
     <row r="11">
@@ -5925,22 +4913,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.319206940042545</v>
+        <v>2.326129826787752</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7306063293156811</v>
+        <v>0.7310941096658284</v>
       </c>
       <c r="D11" t="n">
-        <v>1.328325941676202</v>
+        <v>1.324994639436597</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04002421527742531</v>
+        <v>0.03978652672646898</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0006785101353905082</v>
+        <v>0.0006714855849376619</v>
       </c>
       <c r="G11" t="n">
-        <v>0.009523030270801262</v>
+        <v>0.00959534653410888</v>
       </c>
     </row>
     <row r="12">
@@ -5950,22 +4938,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.83389362969126</v>
+        <v>2.86504083579977</v>
       </c>
       <c r="C12" t="n">
-        <v>0.897004511408085</v>
+        <v>0.9049707965661721</v>
       </c>
       <c r="D12" t="n">
-        <v>1.998583313316523</v>
+        <v>1.990505722661136</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01450933999584918</v>
+        <v>0.01380611742715951</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0004044078109776082</v>
+        <v>0.0003565380757523919</v>
       </c>
       <c r="G12" t="n">
-        <v>2.091756359263502e-05</v>
+        <v>2.144573691315736e-05</v>
       </c>
     </row>
     <row r="13">
@@ -5975,22 +4963,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-29.12511635842106</v>
+        <v>-24.99790119084768</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.01578065996888733</v>
+        <v>-0.01699002028230689</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8527205828956831</v>
+        <v>0.8511818049590066</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999915985129106</v>
+        <v>0.9999422007271407</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9595079872992063</v>
+        <v>0.9564236660116125</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1450574653401936</v>
+        <v>0.1454782232259509</v>
       </c>
     </row>
     <row r="14">
@@ -6000,22 +4988,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3573679239520515</v>
+        <v>0.371839166180214</v>
       </c>
       <c r="C14" t="n">
-        <v>0.115093228287317</v>
+        <v>0.1085870453761649</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1954295428337648</v>
+        <v>-0.1977554413611188</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6770214783971222</v>
+        <v>0.6646127888081207</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6172584849429608</v>
+        <v>0.6370552365476884</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6407506921534599</v>
+        <v>0.6365949636169133</v>
       </c>
     </row>
     <row r="15">
@@ -6025,22 +5013,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.57653550829073</v>
+        <v>-26.30013771812064</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8679444025263062</v>
+        <v>0.902082753934196</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4871684029274184</v>
+        <v>0.5148900166632402</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999386881837397</v>
+        <v>0.9999721644168152</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005079365386661259</v>
+        <v>0.003378938289765753</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4011571737840459</v>
+        <v>0.3736088712499833</v>
       </c>
     </row>
     <row r="16">
@@ -6050,22 +5038,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-16.43853797269559</v>
+        <v>-9.241943607186549</v>
       </c>
       <c r="C16" t="n">
-        <v>1.334662015316038</v>
+        <v>1.348764817810857</v>
       </c>
       <c r="D16" t="n">
-        <v>2.191764428280089</v>
+        <v>2.220282883844546</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9988487504459276</v>
+        <v>0.9754318162492914</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004496058561202872</v>
+        <v>0.004072924579863581</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001097793460575618</v>
+        <v>0.0009083761500707908</v>
       </c>
     </row>
     <row r="17">
@@ -6075,22 +5063,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02130284261500488</v>
+        <v>-0.01433465067597583</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2801839432145856</v>
+        <v>0.2966613985261177</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.04074555391690123</v>
+        <v>-0.02764443574916229</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9825788512138204</v>
+        <v>0.9882338029195794</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2605479355993782</v>
+        <v>0.2326504367847985</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9342543054580361</v>
+        <v>0.9553293462712968</v>
       </c>
     </row>
     <row r="18">
@@ -6100,22 +5088,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.447993848637624</v>
+        <v>2.54855945438926</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4579642647395431</v>
+        <v>0.4038849466401034</v>
       </c>
       <c r="D18" t="n">
-        <v>1.175010288499545</v>
+        <v>1.091038421269265</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01123705395957603</v>
+        <v>0.006955447515681112</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1772711945387994</v>
+        <v>0.22533732295848</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01638294774837717</v>
+        <v>0.02060978516880074</v>
       </c>
     </row>
     <row r="19">
@@ -6125,22 +5113,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.63111721524276</v>
+        <v>2.605643705751573</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06626133823060308</v>
+        <v>0.1194667057357977</v>
       </c>
       <c r="D19" t="n">
-        <v>2.361926146844167</v>
+        <v>2.424521412062575</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06732641251240043</v>
+        <v>0.06851347158062741</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8861016474378958</v>
+        <v>0.7946612337617779</v>
       </c>
       <c r="G19" t="n">
-        <v>0.000203495526845022</v>
+        <v>0.0001228472029343415</v>
       </c>
     </row>
     <row r="20">
@@ -6150,22 +5138,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-13.69129134442421</v>
+        <v>-15.60834468016369</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04590439724948022</v>
+        <v>0.1159762476821242</v>
       </c>
       <c r="D20" t="n">
-        <v>1.567845413117843</v>
+        <v>1.644837623960459</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9980052373099554</v>
+        <v>0.999126643577449</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9407385170840453</v>
+        <v>0.8498684981240717</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01278418518276702</v>
+        <v>0.008234231787268826</v>
       </c>
     </row>
     <row r="21">
@@ -6175,22 +5163,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.195116624491725</v>
+        <v>1.226711982049328</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9926000873207175</v>
+        <v>1.001874284040846</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8073089007737287</v>
+        <v>0.8217973912024921</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2019946308995321</v>
+        <v>0.1892073226034509</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0005422985929214268</v>
+        <v>0.0004761030933018164</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1171061572284567</v>
+        <v>0.1091704054125126</v>
       </c>
     </row>
     <row r="22">
@@ -6200,22 +5188,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.35533100268487</v>
+        <v>11.00467442326015</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.531087625628373</v>
+        <v>-2.550557949389741</v>
       </c>
       <c r="D22" t="n">
-        <v>16.37197440872711</v>
+        <v>16.94695953154027</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9965033579530326</v>
+        <v>0.9973677715003419</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1695639059708403</v>
+        <v>0.1658157751346828</v>
       </c>
       <c r="G22" t="n">
-        <v>0.998928615478848</v>
+        <v>0.9991834379881352</v>
       </c>
     </row>
     <row r="23">
@@ -6225,22 +5213,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11.42058281507847</v>
+        <v>12.08128913020501</v>
       </c>
       <c r="C23" t="n">
-        <v>-3.31973005233969</v>
+        <v>-3.334629336965092</v>
       </c>
       <c r="D23" t="n">
-        <v>14.04841721173586</v>
+        <v>14.62428653371143</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9961436613813286</v>
+        <v>0.9971102550917661</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07630370238114469</v>
+        <v>0.07467207183079996</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9990806693464324</v>
+        <v>0.9992953522228468</v>
       </c>
     </row>
     <row r="24">
@@ -6250,422 +5238,397 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12.06423176842221</v>
+        <v>12.72786967829769</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.46745749131851</v>
+        <v>-2.513564683606486</v>
       </c>
       <c r="D24" t="n">
-        <v>16.91353710694936</v>
+        <v>17.46444825176568</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9959263244634029</v>
+        <v>0.9969555988537137</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1775277411655478</v>
+        <v>0.1689407780028371</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9988931755544525</v>
+        <v>0.9991585036346037</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12.29334842766138</v>
+        <v>13.23810478588933</v>
       </c>
       <c r="C25" t="n">
-        <v>-2.655251153606837</v>
+        <v>-2.608218628798138</v>
       </c>
       <c r="D25" t="n">
-        <v>16.66965419095282</v>
+        <v>17.71614522857887</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9958489605229288</v>
+        <v>0.9968335554786795</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1480429740478208</v>
+        <v>0.1539893559381103</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9989091352798101</v>
+        <v>0.9991463760249761</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12.65788569506979</v>
+        <v>-0.3602007845594203</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.615841620786475</v>
+        <v>0.03235881149307132</v>
       </c>
       <c r="D26" t="n">
-        <v>17.09688227651584</v>
+        <v>0.5300392591259785</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9957258699123893</v>
+        <v>0.3941783105208213</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1532613710409217</v>
+        <v>0.7938200754537165</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9988811774264409</v>
+        <v>0.005828752617746506</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.3700125805902543</v>
+        <v>0.01602281978883021</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04241367995845107</v>
+        <v>0.005839200850445004</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5374274266703519</v>
+        <v>-0.00585627859388543</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3817860152464944</v>
+        <v>0.5058330162012393</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7328078580075975</v>
+        <v>0.4003057851652779</v>
       </c>
       <c r="G27" t="n">
-        <v>0.005248531562525974</v>
+        <v>0.5885202717799325</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01565401133444104</v>
+        <v>-0.000344755417590103</v>
       </c>
       <c r="C28" t="n">
-        <v>0.005260621555520495</v>
+        <v>-0.001604559990605476</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.006504726450213835</v>
+        <v>1.415063142383334e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5148975367476387</v>
+        <v>0.002072789335257518</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4506349600861861</v>
+        <v>5.936527019676717e-103</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5494696502435099</v>
+        <v>0.5291480905526033</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0003440865279442346</v>
+        <v>-2.167601188877787</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.001604750810780514</v>
+        <v>-3.174960299346821</v>
       </c>
       <c r="D29" t="n">
-        <v>1.386868423503966e-05</v>
+        <v>-4.023302327827127</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002070445733702554</v>
+        <v>0.003229024842616794</v>
       </c>
       <c r="F29" t="n">
-        <v>6.649425164894482e-103</v>
+        <v>2.20353553390308e-24</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5384297088185719</v>
+        <v>4.363925644791976e-34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-2.111094366817803</v>
+        <v>0.05140154608674381</v>
       </c>
       <c r="C30" t="n">
-        <v>-3.167920314343445</v>
+        <v>0.08354448065666227</v>
       </c>
       <c r="D30" t="n">
-        <v>-4.01507131029989</v>
+        <v>0.1783952806248526</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004418486350385905</v>
+        <v>0.7743930704474452</v>
       </c>
       <c r="F30" t="n">
-        <v>2.461819499325147e-24</v>
+        <v>0.142784792295736</v>
       </c>
       <c r="G30" t="n">
-        <v>5.326244432344921e-34</v>
+        <v>0.03258555245510966</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.06766248374440298</v>
+        <v>0.0004608891181097384</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08268580654278054</v>
+        <v>0.0002164989504682576</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1755620912963945</v>
+        <v>0.0001213918068485179</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7105387282993711</v>
+        <v>0.02961933106304519</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1471167243715589</v>
+        <v>0.0001413907125916253</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03575414938776057</v>
+        <v>0.1614278071133693</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0004601175746242914</v>
+        <v>-0.1314885638787473</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0002145057959491991</v>
+        <v>0.115156284377174</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0001218004489825457</v>
+        <v>0.122880759907353</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0303555085271168</v>
+        <v>0.6529375625147397</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0001643784225896572</v>
+        <v>0.02269590805915009</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1602970639117304</v>
+        <v>0.1855286262867477</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.1291575801893882</v>
+        <v>-0.1275059746253178</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1157882704985059</v>
+        <v>-0.0334254717677755</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1226193702066264</v>
+        <v>-0.06508104764860741</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6582898123470644</v>
+        <v>0.3342923017861291</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02204301403148741</v>
+        <v>0.2697095924372693</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1865077336640374</v>
+        <v>0.2547508714429847</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.1257508480772366</v>
+        <v>-4.714547026644033e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.03393061416604037</v>
+        <v>-6.593404838617899e-08</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.06490169101808875</v>
+        <v>-2.349753688370751e-08</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3418796063778767</v>
+        <v>0.03756124218223914</v>
       </c>
       <c r="F34" t="n">
-        <v>0.262809891805119</v>
+        <v>0.2650331482601964</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2554600982885163</v>
+        <v>0.7994452457947994</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-4.703172478960782e-07</v>
+        <v>-0.03996674044538036</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.224684072960234e-08</v>
+        <v>-0.009119292734706394</v>
       </c>
       <c r="D35" t="n">
-        <v>-2.241601443348563e-08</v>
+        <v>0.01805519444261795</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0386488920264279</v>
+        <v>0.0650015740847181</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2935193378878828</v>
+        <v>0.1196338051209815</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8086876479762405</v>
+        <v>0.03865956778186017</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.04013909140112133</v>
+        <v>-0.1105810391858217</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.009137881432435714</v>
+        <v>0.002229739202310725</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01816489242144037</v>
+        <v>0.00699498145793438</v>
       </c>
       <c r="E36" t="n">
-        <v>0.06424458502734842</v>
+        <v>0.002585310778969052</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1189600354457079</v>
+        <v>0.6139371789839747</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03768085203878128</v>
+        <v>0.07621491315415986</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.1106244512829922</v>
+        <v>-13.82738440343405</v>
       </c>
       <c r="C37" t="n">
-        <v>0.00207979647913525</v>
+        <v>9.409647832200356</v>
       </c>
       <c r="D37" t="n">
-        <v>0.006906155295424406</v>
+        <v>-3.315159480293973</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002438018925495421</v>
+        <v>0.4177519291437347</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6384836661747023</v>
+        <v>0.02652379044297435</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0801152158922445</v>
+        <v>0.6501687756757735</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-13.83623475858025</v>
+        <v>1.909928064952283</v>
       </c>
       <c r="C38" t="n">
-        <v>9.355426704959799</v>
+        <v>-0.09236325582113991</v>
       </c>
       <c r="D38" t="n">
-        <v>-3.655028955522663</v>
+        <v>-0.4708780290649796</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4178002816868296</v>
+        <v>0.3556759358289968</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02742032673261662</v>
+        <v>0.8581347832330929</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6180571810017789</v>
+        <v>0.6070275020311071</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.942254948476444</v>
+        <v>9.70688141277398</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.08235592948005008</v>
+        <v>1.508082000698423</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.4730652264763233</v>
+        <v>-0.2263915690603609</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3468229884338073</v>
+        <v>0.01261785245493945</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8733038540225213</v>
+        <v>0.1603960155221651</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6056045244940013</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>9.660819227394869</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1.45838388540934</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-0.2374180482627756</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.01300610327187994</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.1748572993923654</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.8956135834958479</v>
+        <v>0.900373650570826</v>
       </c>
     </row>
   </sheetData>
@@ -6679,7 +5642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6730,24 +5693,12 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-8.531513417452992</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.226661510015009</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-14.46192581551276</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.997044094081482</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.005481335355237436</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9793844756067523</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6755,24 +5706,12 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.1629476487085005</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3217756589648074</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.7278461125895231</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.8154698733620663</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.05645448376345262</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.01650364292443871</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6780,24 +5719,12 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-40.55265503355157</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.8337459931005473</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-1.328066754245739</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9999998831253253</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00181350954937287</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.003883944930715797</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6805,24 +5732,12 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.07859131416898767</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0198570189811701</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.2500072868661898</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9284197822655851</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9180526842312634</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.3609183660852945</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6830,24 +5745,12 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.4612673469993532</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4202674958054294</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-26.10391896361212</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.744058981615398</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5411388917040307</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.999601690314296</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6855,24 +5758,12 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.6224176099375902</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.07088413886109092</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.8535689314108871</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.369324670230765</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.693361383016516</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.01255458105000475</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6880,24 +5771,12 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>-0.4462118900686571</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.09031086391387701</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.2510733829214795</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.3247856136444948</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.4418741941744868</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.1686433382007095</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6905,24 +5784,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2.141774262734499</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.884381719771951</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.240925326394612</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.06103495548568286</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.662949115033483e-20</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.351747774917504e-06</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6930,24 +5797,12 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>-0.4725968622105352</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.417162696707144</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.138617550636131</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.7662466932275501</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.059239368849833e-05</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5.131279245395134e-05</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6955,24 +5810,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2.121435281160275</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6749558270281908</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.528743381503779</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.06216590017851155</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.001489202095775999</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.002769129441499581</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6980,24 +5823,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2.563828699549777</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9428039769391001</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.161430934004464</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.04249741558075313</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0002338554458867045</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4.498669188323205e-06</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7005,24 +5836,12 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>-7.738190182370694</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.09717449459165702</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.9711602715828035</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.8654730087683821</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.7633558950418671</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.1075258711616809</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7030,24 +5849,12 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>1.186125037315641</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.09101115153402371</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.09981537854073318</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.2184566222083426</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.6860968314569211</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.7950786339392094</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7055,24 +5862,12 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>-16.62972099712623</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.6888249229932764</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.4635378759365732</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.998038396246379</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.02382296660703894</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.4064178627221446</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7080,24 +5875,12 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>-21.20436078028326</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.336849984588691</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.208178407508257</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9998734191808079</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.006446835891016069</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.001479487837512996</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7105,24 +5888,12 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-0.07597425924090377</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2766816089798329</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.006156486431467395</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9479149098568452</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.2663946238165801</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.9900220187165395</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7130,24 +5901,12 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>3.874276815388888</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.4333604811859215</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.7720738966786617</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.002399026464136902</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.2089614216535363</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.1246204478230808</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7155,24 +5914,12 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>4.518046270800471</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.1090968905127824</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.136516117268515</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.002166785711754335</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.8146702375687463</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0006569357825001942</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7180,24 +5927,12 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>-13.90854536559748</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1578413818461765</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.277374241298284</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9987231628216593</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.7985617459180212</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.05216070047345648</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7205,24 +5940,12 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>1.821690044856857</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.8728021118691431</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.6822317387848987</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.08263818831824438</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.002324859091767226</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.1886587403546849</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7230,24 +5953,12 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>10.34236023131717</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.572611710051398</v>
-      </c>
-      <c r="D22" t="n">
-        <v>10.54587309046717</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9964166892078281</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.2211015613846031</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.9849660175281792</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7255,24 +5966,12 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>10.71071394072696</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-2.376312712328045</v>
-      </c>
-      <c r="D23" t="n">
-        <v>8.152987149719042</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9962890669137249</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.07413233649932496</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.9883769931922851</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7280,424 +5979,207 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>11.94989199165534</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-1.650297016323521</v>
-      </c>
-      <c r="D24" t="n">
-        <v>11.12876222631293</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9958597330019865</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.1923753464146527</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.9841351650391225</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>11.5423610665984</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-1.858663754134979</v>
-      </c>
-      <c r="D25" t="n">
-        <v>10.75922698238077</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.996000928909946</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.1448261822168243</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.9846618988449604</v>
-      </c>
+          <t>Education[T.University]</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>11.83584707968811</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-1.744759743493053</v>
-      </c>
-      <c r="D26" t="n">
-        <v>11.13778288254528</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9958992457591441</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.1690142146451248</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.9841223072564511</v>
-      </c>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.4528047852839424</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.1207653711869237</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.8115478302247302</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.3337996585735196</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.3305118118319291</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3.641501157857283e-05</v>
-      </c>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.04426599630080757</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.003504175331543095</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-0.01098252329996957</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.1405793030455149</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.6133319331941939</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.2983897932774189</v>
-      </c>
+          <t>Trip_Distance</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.0003877614392986123</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.001576530001690179</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.94443879508791e-05</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.002412207855812705</v>
-      </c>
-      <c r="F29" t="n">
-        <v>7.29771272276267e-102</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.3747652396148923</v>
-      </c>
+          <t>CarOwnershipHH</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-2.764567968589</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-3.166602925364892</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-4.118681337710695</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.0001390679096859628</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.954148676536581e-24</v>
-      </c>
-      <c r="G30" t="n">
-        <v>6.260034713910144e-35</v>
-      </c>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HHSize</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.05575080029522005</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.1069444230833828</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.192286153461623</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.7938083952696618</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.05694102838229714</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.02053284639785763</v>
-      </c>
+          <t>UrbPopDensity_origin</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.0004695035933112233</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.0002034083483867312</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.0001483065060725843</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.04764961569187106</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.0002128391412675624</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.08430176590682691</v>
-      </c>
+          <t>DistSubcenter_origin</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.1554378854052782</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.1137886445147596</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.1125528796761465</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.5225643256778566</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.02411247616908808</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.2097547992185806</v>
-      </c>
+          <t>DistCenter_origin</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.02131064319583947</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-0.0351827006872714</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-0.07879205180187092</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.858399382139061</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.2355889878660776</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.1520334001070637</v>
-      </c>
+          <t>UrbBuildDensity_origin</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-4.252961448481245e-07</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-5.966529552099239e-08</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-4.144098510642854e-08</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.09082596420387394</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.299774414246632</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.6538970634985788</v>
-      </c>
+          <t>IntersecDensity_origin</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.04728367520125362</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-0.00798387368612386</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.01449693658172507</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.03076019696979492</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.1701811850184549</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.1006537275040199</v>
-      </c>
+          <t>street_length_origin</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.1023227533414044</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.0007092930501183555</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.006142163554019524</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.003263863672751295</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.8763495189956333</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.1269482584654674</v>
-      </c>
+          <t>bike_lane_share_origin</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.7673386150449175</v>
-      </c>
-      <c r="C38" t="n">
-        <v>6.991186415668822</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.02918596226313522</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.965023132701791</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.09265947663928251</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.9967636032976169</v>
-      </c>
+          <t>LU_UrbFab_origin</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>2.95916857399302</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-0.04137480644483719</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-0.479119695471782</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.174257429301473</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.9350367218885478</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.5980241050050727</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
           <t>LU_Comm_origin</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>8.881086939723547</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1.70313215379454</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-0.7927547668465643</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.02853869434752705</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.09877904171436674</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.6564350754141223</v>
-      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7710,7 +6192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8057,7 +6539,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -8070,7 +6552,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -8083,7 +6565,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -8096,7 +6578,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -8109,7 +6591,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -8122,7 +6604,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -8135,7 +6617,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -8148,7 +6630,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -8161,7 +6643,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -8174,7 +6656,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -8187,7 +6669,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -8200,7 +6682,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -8213,7 +6695,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -8226,7 +6708,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -8239,7 +6721,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -8249,19 +6731,6 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
